--- a/data/case1/18/P_device_3.xlsx
+++ b/data/case1/18/P_device_3.xlsx
@@ -62,34 +62,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.034379418302373524</v>
+        <v>-0.078810386556763298</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.034379418663211196</v>
+        <v>0.078810385301768662</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.085496731819818816</v>
+        <v>0.019229882981893553</v>
       </c>
       <c r="B2" s="0">
-        <v>0.085496731476676885</v>
+        <v>-0.019229884278862252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.015531919487298698</v>
+        <v>0.031969756374199597</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.015531919867031795</v>
+        <v>-0.031969757616886509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.0011103372307756034</v>
+        <v>0.00055431271148150072</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.0011103376356558078</v>
+        <v>-0.0005543140649239978</v>
       </c>
     </row>
   </sheetData>
